--- a/Data Files/test 2.xlsx
+++ b/Data Files/test 2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\Meete\clone-merchant-katalon\Data Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982445F-4C6F-4070-82CB-7600B6230193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4890" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>0. Thiết lập ID</t>
   </si>
@@ -197,49 +206,57 @@
   </si>
   <si>
     <t>Trà vải</t>
+  </si>
+  <si>
+    <t>Deal shock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -249,7 +266,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -259,16 +276,26 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -278,14 +305,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -300,17 +331,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -319,129 +353,109 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -631,45 +645,50 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:K121"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.29"/>
-    <col customWidth="1" min="2" max="2" width="44.57"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>226.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>274.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -697,12 +716,12 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>15000.0</v>
+        <v>15000</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -727,12 +746,12 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -757,12 +776,12 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -787,12 +806,12 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>999999.0</v>
+        <v>999999</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -817,12 +836,12 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -847,12 +866,12 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -877,7 +896,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -907,12 +926,12 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -937,7 +956,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -965,7 +984,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -995,12 +1014,12 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1025,7 +1044,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1072,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1083,12 +1102,12 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1113,7 +1132,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1160,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1171,12 +1190,12 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1201,12 +1220,12 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1231,7 +1250,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1261,12 +1280,12 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1291,12 +1310,12 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="7">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1321,13 +1340,13 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1349,17 +1368,17 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="4"/>
@@ -1383,18 +1402,18 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
     </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="14">
-        <v>2.0</v>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1417,18 +1436,18 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
     </row>
-    <row r="29">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="14">
-        <v>2.0</v>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1451,18 +1470,18 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
     </row>
-    <row r="30">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2.0</v>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1485,18 +1504,18 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
     </row>
-    <row r="31">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="14">
-        <v>2.0</v>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1510,13 +1529,13 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
     </row>
-    <row r="32">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="41">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="41" spans="15:24" x14ac:dyDescent="0.2">
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -1528,7 +1547,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="15:24" x14ac:dyDescent="0.2">
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -1540,7 +1559,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="15:24" x14ac:dyDescent="0.2">
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -1552,7 +1571,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="15:24" x14ac:dyDescent="0.2">
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -1564,384 +1583,384 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="51">
-      <c r="R51" s="19"/>
-    </row>
-    <row r="52">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R51" s="16"/>
+    </row>
+    <row r="52" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R57" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J79" s="4"/>
     </row>
-    <row r="80">
-      <c r="A80" s="20" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="10"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="28"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81">
-      <c r="A81" s="21" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="18">
-        <v>5.0</v>
+      <c r="C82" s="15">
+        <v>0</v>
+      </c>
+      <c r="D82" s="15">
+        <v>5</v>
       </c>
       <c r="J82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="4"/>
       <c r="J83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J84" s="4"/>
     </row>
-    <row r="101">
-      <c r="A101" s="20" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="10"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="23" t="s">
+      <c r="B101" s="28"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="25" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="B103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="18"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="26" t="s">
+      <c r="B104" s="15"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="4"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
       <c r="L121" s="4"/>
     </row>
-    <row r="122">
-      <c r="A122" s="23" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="E122" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F122" s="24" t="s">
+      <c r="F122" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G122" s="24" t="s">
+      <c r="G122" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="H122" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I122" s="24" t="s">
+      <c r="I122" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J122" s="24" t="s">
+      <c r="J122" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K122" s="24" t="s">
+      <c r="K122" s="20" t="s">
         <v>54</v>
       </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123">
-      <c r="A123" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B123" s="25" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="27"/>
-      <c r="E123" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F123" s="28">
-        <v>14000.0</v>
-      </c>
-      <c r="G123" s="28">
-        <v>10000.0</v>
-      </c>
-      <c r="H123" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I123" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="J123" s="18">
-        <v>0.0</v>
+      <c r="C123" s="22"/>
+      <c r="E123" s="15">
+        <v>1</v>
+      </c>
+      <c r="F123" s="23">
+        <v>14000</v>
+      </c>
+      <c r="G123" s="23">
+        <v>10000</v>
+      </c>
+      <c r="H123" s="15">
+        <v>1</v>
+      </c>
+      <c r="I123" s="15">
+        <v>100</v>
+      </c>
+      <c r="J123" s="15">
+        <v>0</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L123" s="2"/>
     </row>
-    <row r="124">
-      <c r="A124" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="25" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B124" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="27"/>
-      <c r="E124" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F124" s="28">
-        <v>16000.0</v>
-      </c>
-      <c r="G124" s="28">
-        <v>10000.0</v>
-      </c>
-      <c r="H124" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I124" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="J124" s="18">
-        <v>0.0</v>
+      <c r="C124" s="22"/>
+      <c r="E124" s="15">
+        <v>1</v>
+      </c>
+      <c r="F124" s="23">
+        <v>16000</v>
+      </c>
+      <c r="G124" s="23">
+        <v>10000</v>
+      </c>
+      <c r="H124" s="15">
+        <v>1</v>
+      </c>
+      <c r="I124" s="15">
+        <v>100</v>
+      </c>
+      <c r="J124" s="15">
+        <v>0</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L124" s="2"/>
     </row>
-    <row r="125">
-      <c r="A125" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="25" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C125" s="27"/>
-      <c r="E125" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F125" s="28">
-        <v>20000.0</v>
-      </c>
-      <c r="G125" s="28">
-        <v>10000.0</v>
-      </c>
-      <c r="H125" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I125" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="J125" s="18">
-        <v>0.0</v>
+      <c r="C125" s="22"/>
+      <c r="E125" s="15">
+        <v>1</v>
+      </c>
+      <c r="F125" s="23">
+        <v>20000</v>
+      </c>
+      <c r="G125" s="23">
+        <v>10000</v>
+      </c>
+      <c r="H125" s="15">
+        <v>1</v>
+      </c>
+      <c r="I125" s="15">
+        <v>100</v>
+      </c>
+      <c r="J125" s="15">
+        <v>0</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L125" s="2"/>
     </row>
-    <row r="126">
-      <c r="A126" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="25" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C126" s="27"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E126" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F126" s="28">
-        <v>20000.0</v>
-      </c>
-      <c r="G126" s="28">
-        <v>15000.0</v>
-      </c>
-      <c r="H126" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I126" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="J126" s="18">
-        <v>0.0</v>
+      <c r="E126" s="15">
+        <v>1</v>
+      </c>
+      <c r="F126" s="23">
+        <v>20000</v>
+      </c>
+      <c r="G126" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H126" s="15">
+        <v>1</v>
+      </c>
+      <c r="I126" s="15">
+        <v>100</v>
+      </c>
+      <c r="J126" s="15">
+        <v>0</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L126" s="2"/>
     </row>
-    <row r="127">
-      <c r="A127" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B127" s="25" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B127" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C127" s="27"/>
+      <c r="C127" s="22"/>
       <c r="D127" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E127" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F127" s="28">
-        <v>28000.0</v>
-      </c>
-      <c r="G127" s="28">
-        <v>15000.0</v>
-      </c>
-      <c r="H127" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I127" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="J127" s="18">
-        <v>0.0</v>
+      <c r="E127" s="15">
+        <v>1</v>
+      </c>
+      <c r="F127" s="23">
+        <v>28000</v>
+      </c>
+      <c r="G127" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H127" s="15">
+        <v>1</v>
+      </c>
+      <c r="I127" s="15">
+        <v>100</v>
+      </c>
+      <c r="J127" s="15">
+        <v>0</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L127" s="2"/>
     </row>
-    <row r="128">
-      <c r="A128" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128" s="29" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C128" s="27"/>
+      <c r="C128" s="22"/>
       <c r="D128" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E128" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F128" s="28">
-        <v>28000.0</v>
-      </c>
-      <c r="G128" s="28">
-        <v>15000.0</v>
-      </c>
-      <c r="H128" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I128" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="J128" s="18">
-        <v>0.0</v>
+      <c r="E128" s="15">
+        <v>1</v>
+      </c>
+      <c r="F128" s="23">
+        <v>28000</v>
+      </c>
+      <c r="G128" s="23">
+        <v>15000</v>
+      </c>
+      <c r="H128" s="15">
+        <v>1</v>
+      </c>
+      <c r="I128" s="15">
+        <v>100</v>
+      </c>
+      <c r="J128" s="15">
+        <v>0</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="30"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="25"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A80:D80"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A80:D80"/>
     <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A121:J121"/>
+    <mergeCell ref="A121:K121"/>
   </mergeCells>
   <conditionalFormatting sqref="B28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/test 2.xlsx
+++ b/Data Files/test 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\Meete\clone-merchant-katalon\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982445F-4C6F-4070-82CB-7600B6230193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AD6C2-5E2F-404F-940B-8EA880648EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4890" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>Cà phê đen</t>
   </si>
   <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
     <t>Cà phê sữa</t>
   </si>
   <si>
@@ -209,13 +206,16 @@
   </si>
   <si>
     <t>Deal shock</t>
+  </si>
+  <si>
+    <t>https://www.publicdomainpictures.net/pictures/320000/velka/background-image.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,6 +259,13 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -360,10 +367,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -410,11 +418,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,8 +434,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -657,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:K121"/>
+    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1341,12 +1351,12 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1611,12 +1621,12 @@
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="28"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -1661,10 +1671,10 @@
       <c r="J84" s="4"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="28"/>
+      <c r="B101" s="26"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
@@ -1687,19 +1697,19 @@
       <c r="B104" s="15"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -1740,19 +1750,19 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="22"/>
+      <c r="C123" s="29"/>
       <c r="E123" s="15">
         <v>1</v>
       </c>
-      <c r="F123" s="23">
+      <c r="F123" s="22">
         <v>14000</v>
       </c>
-      <c r="G123" s="23">
+      <c r="G123" s="22">
         <v>10000</v>
       </c>
       <c r="H123" s="15">
@@ -1764,26 +1774,26 @@
       <c r="J123" s="15">
         <v>0</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>56</v>
+      <c r="K123" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C124" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="C124" s="29"/>
       <c r="E124" s="15">
         <v>1</v>
       </c>
-      <c r="F124" s="23">
+      <c r="F124" s="22">
         <v>16000</v>
       </c>
-      <c r="G124" s="23">
+      <c r="G124" s="22">
         <v>10000</v>
       </c>
       <c r="H124" s="15">
@@ -1795,26 +1805,26 @@
       <c r="J124" s="15">
         <v>0</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>56</v>
+      <c r="K124" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C125" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="C125" s="29"/>
       <c r="E125" s="15">
         <v>1</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="22">
         <v>20000</v>
       </c>
-      <c r="G125" s="23">
+      <c r="G125" s="22">
         <v>10000</v>
       </c>
       <c r="H125" s="15">
@@ -1826,29 +1836,29 @@
       <c r="J125" s="15">
         <v>0</v>
       </c>
-      <c r="K125" s="1" t="s">
-        <v>56</v>
+      <c r="K125" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C126" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="C126" s="29"/>
       <c r="D126" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E126" s="15">
         <v>1</v>
       </c>
-      <c r="F126" s="23">
+      <c r="F126" s="22">
         <v>20000</v>
       </c>
-      <c r="G126" s="23">
+      <c r="G126" s="22">
         <v>15000</v>
       </c>
       <c r="H126" s="15">
@@ -1860,29 +1870,29 @@
       <c r="J126" s="15">
         <v>0</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>56</v>
+      <c r="K126" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C127" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="C127" s="29"/>
       <c r="D127" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E127" s="15">
         <v>1</v>
       </c>
-      <c r="F127" s="23">
+      <c r="F127" s="22">
         <v>28000</v>
       </c>
-      <c r="G127" s="23">
+      <c r="G127" s="22">
         <v>15000</v>
       </c>
       <c r="H127" s="15">
@@ -1894,29 +1904,29 @@
       <c r="J127" s="15">
         <v>0</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>56</v>
+      <c r="K127" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C128" s="22"/>
+      <c r="B128" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" s="29"/>
       <c r="D128" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E128" s="15">
         <v>1</v>
       </c>
-      <c r="F128" s="23">
+      <c r="F128" s="22">
         <v>28000</v>
       </c>
-      <c r="G128" s="23">
+      <c r="G128" s="22">
         <v>15000</v>
       </c>
       <c r="H128" s="15">
@@ -1928,8 +1938,8 @@
       <c r="J128" s="15">
         <v>0</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>56</v>
+      <c r="K128" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="L128" s="2"/>
     </row>
@@ -1943,7 +1953,7 @@
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="25"/>
+      <c r="K129" s="23"/>
       <c r="L129" s="2"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -1961,6 +1971,15 @@
       <formula>LEN(TRIM(B28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K123" r:id="rId1" xr:uid="{4B7CF975-7E99-4E89-91FE-CC461FF5881A}"/>
+    <hyperlink ref="K124" r:id="rId2" xr:uid="{B816BC0E-CE59-43C5-B76A-99DE8DF252B0}"/>
+    <hyperlink ref="K125" r:id="rId3" xr:uid="{2AC645BF-35A2-43F9-B9F5-1E263BEEEFDC}"/>
+    <hyperlink ref="K126" r:id="rId4" xr:uid="{740E2B21-2412-4CBF-B58B-15E2B7D02627}"/>
+    <hyperlink ref="K127" r:id="rId5" xr:uid="{6294F694-141C-4A2D-BF93-632C685DD0F4}"/>
+    <hyperlink ref="K128" r:id="rId6" xr:uid="{3E98673F-BA8E-42DA-94CD-941B7B9B5E08}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
 </worksheet>
 </file>